--- a/_Organisation/Zeitplanung/Zeiterfassung Voodoo_ll.xlsx
+++ b/_Organisation/Zeitplanung/Zeiterfassung Voodoo_ll.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="165">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -505,7 +505,16 @@
     <t>Concepte für Maken und Guard und Doctor</t>
   </si>
   <si>
-    <t>Zeiterfassung nacharbeiten+Slack und Github fixen(40min), Ref Ordner Guard und Illuminati;</t>
+    <t>Zeiterfassung nacharbeiten+Slack und Github fixen(40min), Ref Ordner Secr Society, 30's enviorment, Voodoo(2:20h); charakterconcept paper(2h)</t>
+  </si>
+  <si>
+    <t>Artist Meeting, Concept Guard</t>
+  </si>
+  <si>
+    <t>Untericht</t>
+  </si>
+  <si>
+    <t>Conzept Guard für topo(4:15h); einzelgespräch(45min)</t>
   </si>
 </sst>
 </file>
@@ -13144,8 +13153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13442,7 +13451,9 @@
       <c r="E16" s="12">
         <v>0</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="9" t="s">
+        <v>163</v>
+      </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
     </row>
@@ -13456,7 +13467,9 @@
       <c r="E17" s="12">
         <v>0</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>163</v>
+      </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
     </row>
@@ -13480,19 +13493,21 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="15">
         <v>0.375</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="15">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="D19" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="12">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9" t="s">
@@ -13504,14 +13519,22 @@
       <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="17"/>
+      <c r="B20" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0.5625</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0.5</v>
+      </c>
       <c r="E20" s="12">
         <v>0</v>
       </c>
       <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="G20" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13597,19 +13620,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
+      <c r="B26" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="C26" s="15">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0</v>
+      </c>
       <c r="E26" s="12">
         <f>(B26-C26)*-24-D26</f>
-        <v>0</v>
+        <v>5.0000000000000009</v>
       </c>
       <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+      <c r="G26" s="9" t="s">
+        <v>164</v>
+      </c>
       <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13711,7 +13742,7 @@
       </c>
       <c r="E33" s="22">
         <f>SUM(E26:E32)</f>
-        <v>0</v>
+        <v>5.0000000000000009</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -13726,7 +13757,7 @@
       </c>
       <c r="E34" s="19">
         <f>SUM(E13+E23+E33)</f>
-        <v>21.08</v>
+        <v>26.08</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -13887,7 +13918,7 @@
       </c>
       <c r="E44" s="19">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>21.08</v>
+        <v>26.08</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -14048,7 +14079,7 @@
       </c>
       <c r="E54" s="19">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>21.08</v>
+        <v>26.08</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -14209,7 +14240,7 @@
       </c>
       <c r="E64" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>21.08</v>
+        <v>26.08</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -14370,7 +14401,7 @@
       </c>
       <c r="E74" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>21.08</v>
+        <v>26.08</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -14531,7 +14562,7 @@
       </c>
       <c r="E84" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>21.08</v>
+        <v>26.08</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -14692,7 +14723,7 @@
       </c>
       <c r="E94" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>21.08</v>
+        <v>26.08</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -14853,7 +14884,7 @@
       </c>
       <c r="E104" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>21.08</v>
+        <v>26.08</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -15014,7 +15045,7 @@
       </c>
       <c r="E114" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>21.08</v>
+        <v>26.08</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -15175,7 +15206,7 @@
       </c>
       <c r="E124" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>21.08</v>
+        <v>26.08</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -15336,7 +15367,7 @@
       </c>
       <c r="E134" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>21.08</v>
+        <v>26.08</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -15497,7 +15528,7 @@
       </c>
       <c r="E144" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>21.08</v>
+        <v>26.08</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -15658,7 +15689,7 @@
       </c>
       <c r="E154" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>21.08</v>
+        <v>26.08</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -15818,7 +15849,7 @@
       </c>
       <c r="E164" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>21.08</v>
+        <v>26.08</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -15979,7 +16010,7 @@
       </c>
       <c r="E174" s="19">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>21.08</v>
+        <v>26.08</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -16140,7 +16171,7 @@
       </c>
       <c r="E184" s="18">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>21.08</v>
+        <v>26.08</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
